--- a/AnalysisPAPEVRMS.xlsx
+++ b/AnalysisPAPEVRMS.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\einra\OneDrive\Desktop\Master Final\DataForAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\einra\OneDrive\Desktop\Master_Final\DataForAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D31F4F07-58EA-4B68-B36C-DB3BF95FB215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB4A3EC-62D3-47DF-9FA8-A25A10A9C0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PAPEVRMS9" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="20">
   <si>
     <t>Subject</t>
   </si>
@@ -85,7 +97,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -919,16 +931,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AO56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AL1" sqref="AL1:AL1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -965,6 +977,15 @@
       <c r="N1" t="s">
         <v>11</v>
       </c>
+      <c r="O1">
+        <v>2.9180999999999999</v>
+      </c>
+      <c r="P1">
+        <v>3.3207</v>
+      </c>
+      <c r="Q1">
+        <v>3.3332999999999999</v>
+      </c>
       <c r="R1">
         <v>91.938118419999995</v>
       </c>
@@ -995,8 +1016,31 @@
       <c r="AA1">
         <v>89.472807579999994</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN1">
+        <f>AVERAGE(AL2:AL12)</f>
+        <v>92.29416698549457</v>
+      </c>
+      <c r="AO1">
+        <f>_xlfn.STDEV.S(AL2:AL12)</f>
+        <v>2.5150985616962855</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1063,8 +1107,31 @@
       <c r="AA2">
         <v>91.869494990000007</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG2">
+        <v>86.447177310000001</v>
+      </c>
+      <c r="AH2">
+        <v>92.070223990000002</v>
+      </c>
+      <c r="AI2">
+        <v>89.472807579999994</v>
+      </c>
+      <c r="AJ2">
+        <v>89.363088540000007</v>
+      </c>
+      <c r="AL2">
+        <v>89.363088540000007</v>
+      </c>
+      <c r="AN2">
+        <f>AVERAGE(AL13:AL23)</f>
+        <v>92.553592825862324</v>
+      </c>
+      <c r="AO2">
+        <f>_xlfn.STDEV.S(AL13:AL23)</f>
+        <v>9.809106064717632</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1101,6 +1168,10 @@
       <c r="N3">
         <v>2</v>
       </c>
+      <c r="P3">
+        <f>O1*0.17+P1*0.35+Q1*0.23</f>
+        <v>2.4249809999999998</v>
+      </c>
       <c r="R3">
         <v>82.049688669999995</v>
       </c>
@@ -1131,8 +1202,31 @@
       <c r="AA3">
         <v>92.7970586</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG3">
+        <v>92.042681090000002</v>
+      </c>
+      <c r="AH3">
+        <v>89.495981180000001</v>
+      </c>
+      <c r="AI3">
+        <v>91.869494990000007</v>
+      </c>
+      <c r="AJ3">
+        <v>91.052495680000007</v>
+      </c>
+      <c r="AL3">
+        <v>91.052495680000007</v>
+      </c>
+      <c r="AN3">
+        <f>AVERAGE(AL24:AL34)</f>
+        <v>81.790932798039051</v>
+      </c>
+      <c r="AO3">
+        <f>_xlfn.STDEV.S(AL24:AL34)</f>
+        <v>9.8851629636309557</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1199,8 +1293,31 @@
       <c r="AA4">
         <v>91.447112419999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG4">
+        <v>97.174475849999993</v>
+      </c>
+      <c r="AH4">
+        <v>94.898532309999993</v>
+      </c>
+      <c r="AI4">
+        <v>92.7970586</v>
+      </c>
+      <c r="AJ4">
+        <v>94.768776919999993</v>
+      </c>
+      <c r="AL4">
+        <v>94.768776919999993</v>
+      </c>
+      <c r="AN4">
+        <f>AVERAGE(AL35:AL45)</f>
+        <v>84.342911634046004</v>
+      </c>
+      <c r="AO4">
+        <f>_xlfn.STDEV.S(AL35:AL45)</f>
+        <v>10.556458329048292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1267,8 +1384,31 @@
       <c r="AA5">
         <v>97.863787479999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG5">
+        <v>87.802714230000007</v>
+      </c>
+      <c r="AH5">
+        <v>90.363788159999999</v>
+      </c>
+      <c r="AI5">
+        <v>91.447112419999996</v>
+      </c>
+      <c r="AJ5">
+        <v>90.239848570000007</v>
+      </c>
+      <c r="AL5">
+        <v>90.239848570000007</v>
+      </c>
+      <c r="AN5">
+        <f>AVERAGE(AL46:AL56)</f>
+        <v>83.838853360921547</v>
+      </c>
+      <c r="AO5">
+        <f>_xlfn.STDEV.S(AL46:AL56)</f>
+        <v>8.6439583437661103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1276,25 +1416,29 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>1.61249573</v>
+        <v>2.8665419999999999</v>
       </c>
       <c r="D6">
-        <v>92.042681090000002</v>
+        <f>C6/O1*100</f>
+        <v>98.233165415852781</v>
       </c>
       <c r="E6">
-        <v>1.8356520700000001</v>
+        <v>3.1026600000000002</v>
       </c>
       <c r="F6">
-        <v>89.495981180000001</v>
+        <f>E6/P1*100</f>
+        <v>93.433914536091791</v>
       </c>
       <c r="G6">
-        <v>1.4116666600000001</v>
+        <v>3.1727729999999998</v>
       </c>
       <c r="H6">
-        <v>91.869494990000007</v>
+        <f>G6/Q1*100</f>
+        <v>95.184141841418409</v>
       </c>
       <c r="I6">
-        <v>91.052495680000007</v>
+        <f>(C6*0.17+E6*0.35+G6*0.23)/P3*100</f>
+        <v>94.969029860440145</v>
       </c>
       <c r="L6">
         <v>1.89349525</v>
@@ -1329,8 +1473,23 @@
       <c r="AA6">
         <v>86.504161499999995</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG6">
+        <v>98.233165415852781</v>
+      </c>
+      <c r="AH6">
+        <v>93.433914536091791</v>
+      </c>
+      <c r="AI6">
+        <v>95.184141841418409</v>
+      </c>
+      <c r="AJ6">
+        <v>94.969029860440145</v>
+      </c>
+      <c r="AL6">
+        <v>94.969029860440145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1397,8 +1556,23 @@
       <c r="AA7">
         <v>92.133409270000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG7">
+        <v>84.356886239999994</v>
+      </c>
+      <c r="AH7">
+        <v>94.789601259999998</v>
+      </c>
+      <c r="AI7">
+        <v>86.504161499999995</v>
+      </c>
+      <c r="AJ7">
+        <v>91.511574580000001</v>
+      </c>
+      <c r="AL7">
+        <v>91.511574580000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1465,8 +1639,23 @@
       <c r="AA8">
         <v>85.81454076</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG8">
+        <v>92.929854210000002</v>
+      </c>
+      <c r="AH8">
+        <v>93.677707150000003</v>
+      </c>
+      <c r="AI8">
+        <v>92.133409270000001</v>
+      </c>
+      <c r="AJ8">
+        <v>92.823038609999998</v>
+      </c>
+      <c r="AL8">
+        <v>92.823038609999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1533,8 +1722,23 @@
       <c r="AA9">
         <v>87.809024600000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG9">
+        <v>90.562294489999999</v>
+      </c>
+      <c r="AH9">
+        <v>92.331270559999993</v>
+      </c>
+      <c r="AI9">
+        <v>85.81454076</v>
+      </c>
+      <c r="AJ9">
+        <v>88.787395360000005</v>
+      </c>
+      <c r="AL9">
+        <v>88.787395360000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1601,8 +1805,23 @@
       <c r="AA10">
         <v>98.600031090000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG10">
+        <v>98.240367370000001</v>
+      </c>
+      <c r="AH10">
+        <v>93.591192550000002</v>
+      </c>
+      <c r="AI10">
+        <v>87.809024600000001</v>
+      </c>
+      <c r="AJ10">
+        <v>91.425434910000007</v>
+      </c>
+      <c r="AL10">
+        <v>91.425434910000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1669,8 +1888,23 @@
       <c r="AA11">
         <v>91.869494990000007</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG11">
+        <v>93.396324640000003</v>
+      </c>
+      <c r="AH11">
+        <v>96.427142500000002</v>
+      </c>
+      <c r="AI11">
+        <v>98.600031090000002</v>
+      </c>
+      <c r="AJ11">
+        <v>96.790323740000005</v>
+      </c>
+      <c r="AL11">
+        <v>96.790323740000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1737,8 +1971,23 @@
       <c r="AA12">
         <v>85.329803089999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG12">
+        <v>93.358246249999993</v>
+      </c>
+      <c r="AH12">
+        <v>89.797519379999997</v>
+      </c>
+      <c r="AI12">
+        <v>97.863787479999999</v>
+      </c>
+      <c r="AJ12">
+        <v>93.504830069999997</v>
+      </c>
+      <c r="AL12">
+        <v>93.504830069999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1799,8 +2048,23 @@
       <c r="AA13">
         <v>83.590490689999996</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG13">
+        <v>69.921793519999994</v>
+      </c>
+      <c r="AH13">
+        <v>77.308936419999995</v>
+      </c>
+      <c r="AI13">
+        <v>85.329803089999999</v>
+      </c>
+      <c r="AJ13">
+        <v>77.771077629999994</v>
+      </c>
+      <c r="AL13">
+        <v>77.771077629999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1861,8 +2125,23 @@
       <c r="AA14">
         <v>99.093234390000006</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG14">
+        <v>87.794600149999994</v>
+      </c>
+      <c r="AH14">
+        <v>84.408951290000005</v>
+      </c>
+      <c r="AI14">
+        <v>83.590490689999996</v>
+      </c>
+      <c r="AJ14">
+        <v>84.843519049999998</v>
+      </c>
+      <c r="AL14">
+        <v>84.843519049999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1923,8 +2202,23 @@
       <c r="AA15">
         <v>103.5905077</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG15">
+        <v>92.386002419999997</v>
+      </c>
+      <c r="AH15">
+        <v>88.415261540000003</v>
+      </c>
+      <c r="AI15">
+        <v>99.093234390000006</v>
+      </c>
+      <c r="AJ15">
+        <v>93.709064089999998</v>
+      </c>
+      <c r="AL15">
+        <v>93.709064089999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1985,8 +2279,23 @@
       <c r="AA16">
         <v>100.0087558</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG16">
+        <v>99.158345949999998</v>
+      </c>
+      <c r="AH16">
+        <v>82.059896469999998</v>
+      </c>
+      <c r="AI16">
+        <v>103.5905077</v>
+      </c>
+      <c r="AJ16">
+        <v>93.641651109999998</v>
+      </c>
+      <c r="AL16">
+        <v>93.641651109999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -1994,25 +2303,29 @@
         <v>13</v>
       </c>
       <c r="C17">
-        <v>1.5380735999999999</v>
+        <v>2.8588399999999998</v>
       </c>
       <c r="D17">
-        <v>87.794600149999994</v>
+        <f>C17/O1*100</f>
+        <v>97.969226551523249</v>
       </c>
       <c r="E17">
-        <v>1.731312</v>
+        <v>3.1006</v>
       </c>
       <c r="F17">
-        <v>84.408951290000005</v>
+        <f>E17/P1*100</f>
+        <v>93.371879423013226</v>
       </c>
       <c r="G17">
-        <v>1.28445148</v>
+        <v>3.1993200000000002</v>
       </c>
       <c r="H17">
-        <v>83.590490689999996</v>
+        <f>G17/Q1*100</f>
+        <v>95.980559805598062</v>
       </c>
       <c r="I17">
-        <v>84.843519049999998</v>
+        <f>(C17*0.17+E17*0.35+G17*0.23)/P13*100</f>
+        <v>110.27994263862333</v>
       </c>
       <c r="L17">
         <v>1.912201203</v>
@@ -2047,8 +2360,23 @@
       <c r="AA17">
         <v>81.117414980000007</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG17">
+        <v>97.969226551523249</v>
+      </c>
+      <c r="AH17">
+        <v>93.371879423013226</v>
+      </c>
+      <c r="AI17">
+        <v>95.980559805598062</v>
+      </c>
+      <c r="AJ17">
+        <v>110.27994263862333</v>
+      </c>
+      <c r="AL17">
+        <v>110.27994263862333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -2112,8 +2440,23 @@
       <c r="AA18">
         <v>115.9122953</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG18">
+        <v>100.5094922</v>
+      </c>
+      <c r="AH18">
+        <v>87.32485896</v>
+      </c>
+      <c r="AI18">
+        <v>81.117414980000007</v>
+      </c>
+      <c r="AJ18">
+        <v>87.689673529999993</v>
+      </c>
+      <c r="AL18">
+        <v>87.689673529999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7</v>
       </c>
@@ -2174,8 +2517,23 @@
       <c r="AA19">
         <v>127.8280625</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG19">
+        <v>89.865767210000001</v>
+      </c>
+      <c r="AH19">
+        <v>107.5197268</v>
+      </c>
+      <c r="AI19">
+        <v>115.9122953</v>
+      </c>
+      <c r="AJ19">
+        <v>106.8355016</v>
+      </c>
+      <c r="AL19">
+        <v>106.8355016</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
@@ -2236,8 +2594,23 @@
       <c r="AA20">
         <v>84.707981160000003</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG20">
+        <v>123.1747366</v>
+      </c>
+      <c r="AH20">
+        <v>132.4447984</v>
+      </c>
+      <c r="AI20">
+        <v>127.8280625</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9</v>
       </c>
@@ -2298,8 +2671,23 @@
       <c r="AA21">
         <v>88.765717089999995</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG21">
+        <v>100.09797159999999</v>
+      </c>
+      <c r="AH21">
+        <v>89.539620549999995</v>
+      </c>
+      <c r="AI21">
+        <v>84.707981160000003</v>
+      </c>
+      <c r="AJ21">
+        <v>89.077235270000003</v>
+      </c>
+      <c r="AL21">
+        <v>89.077235270000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
@@ -2360,8 +2748,23 @@
       <c r="AA22">
         <v>83.590490689999996</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG22">
+        <v>83.175153269999996</v>
+      </c>
+      <c r="AH22">
+        <v>87.864058290000003</v>
+      </c>
+      <c r="AI22">
+        <v>88.765717089999995</v>
+      </c>
+      <c r="AJ22">
+        <v>87.25969345</v>
+      </c>
+      <c r="AL22">
+        <v>87.25969345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11</v>
       </c>
@@ -2422,8 +2825,23 @@
       <c r="AA23">
         <v>84.146489180000003</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG23">
+        <v>95.815958960000003</v>
+      </c>
+      <c r="AH23">
+        <v>88.734643059999996</v>
+      </c>
+      <c r="AI23">
+        <v>100.0087558</v>
+      </c>
+      <c r="AJ23">
+        <v>94.428569890000006</v>
+      </c>
+      <c r="AL23">
+        <v>94.428569890000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2484,8 +2902,23 @@
       <c r="AA24">
         <v>89.932227650000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG24">
+        <v>77.713187489999996</v>
+      </c>
+      <c r="AH24">
+        <v>89.78524324</v>
+      </c>
+      <c r="AI24">
+        <v>84.146489180000003</v>
+      </c>
+      <c r="AJ24">
+        <v>83.951395480000002</v>
+      </c>
+      <c r="AL24">
+        <v>83.951395480000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2546,8 +2979,23 @@
       <c r="AA25">
         <v>83.665377789999994</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG25">
+        <v>90.875580229999997</v>
+      </c>
+      <c r="AH25">
+        <v>87.09697869</v>
+      </c>
+      <c r="AI25">
+        <v>89.932227650000002</v>
+      </c>
+      <c r="AJ25">
+        <v>89.124061499999996</v>
+      </c>
+      <c r="AL25">
+        <v>89.124061499999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2608,8 +3056,23 @@
       <c r="AA26">
         <v>80.423563009999995</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG26">
+        <v>75.666277780000001</v>
+      </c>
+      <c r="AH26">
+        <v>78.053600000000003</v>
+      </c>
+      <c r="AI26">
+        <v>83.665377789999994</v>
+      </c>
+      <c r="AJ26">
+        <v>79.501012549999999</v>
+      </c>
+      <c r="AL26">
+        <v>79.501012549999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2670,8 +3133,23 @@
       <c r="AA27">
         <v>88.060464289999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG27">
+        <v>79.885874849999993</v>
+      </c>
+      <c r="AH27">
+        <v>56.123498810000001</v>
+      </c>
+      <c r="AI27">
+        <v>80.423563009999995</v>
+      </c>
+      <c r="AJ27">
+        <v>70.117148240000006</v>
+      </c>
+      <c r="AL27">
+        <v>70.117148240000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
@@ -2679,25 +3157,29 @@
         <v>16</v>
       </c>
       <c r="C28">
-        <v>1.5920492900000001</v>
+        <v>2.61795</v>
       </c>
       <c r="D28">
-        <v>90.875580229999997</v>
+        <f>C28/O1*100</f>
+        <v>89.714197594325071</v>
       </c>
       <c r="E28">
-        <v>1.7864461300000001</v>
+        <v>2.8025129999999998</v>
       </c>
       <c r="F28">
-        <v>87.09697869</v>
+        <f>E28/P1*100</f>
+        <v>84.395247989881653</v>
       </c>
       <c r="G28">
-        <v>1.3818986099999999</v>
+        <v>2.8969040000000001</v>
       </c>
       <c r="H28">
-        <v>89.932227650000002</v>
+        <f>G28/Q1*100</f>
+        <v>86.907989079890797</v>
       </c>
       <c r="I28">
-        <v>89.124061499999996</v>
+        <f>(C28*0.17+E28*0.35+G28*0.23)/P3*100</f>
+        <v>86.277746918429472</v>
       </c>
       <c r="L28">
         <v>1.7082739220000001</v>
@@ -2732,8 +3214,23 @@
       <c r="AA28">
         <v>70.967165350000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG28">
+        <v>89.714197594325071</v>
+      </c>
+      <c r="AH28">
+        <v>84.395247989881653</v>
+      </c>
+      <c r="AI28">
+        <v>86.907989079890797</v>
+      </c>
+      <c r="AJ28">
+        <v>86.277746918429472</v>
+      </c>
+      <c r="AL28">
+        <v>86.277746918429472</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6</v>
       </c>
@@ -2797,8 +3294,23 @@
       <c r="AA29">
         <v>97.396577949999994</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG29">
+        <v>61.416403180000003</v>
+      </c>
+      <c r="AH29">
+        <v>71.637465180000007</v>
+      </c>
+      <c r="AI29">
+        <v>70.967165350000002</v>
+      </c>
+      <c r="AJ29">
+        <v>70.11279863</v>
+      </c>
+      <c r="AL29">
+        <v>70.11279863</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>7</v>
       </c>
@@ -2859,8 +3371,23 @@
       <c r="AA30">
         <v>101.6225924</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG30">
+        <v>69.692207929999995</v>
+      </c>
+      <c r="AH30">
+        <v>96.229563150000004</v>
+      </c>
+      <c r="AI30">
+        <v>97.396577949999994</v>
+      </c>
+      <c r="AJ30">
+        <v>90.225325999999995</v>
+      </c>
+      <c r="AL30">
+        <v>90.225325999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8</v>
       </c>
@@ -2921,8 +3448,23 @@
       <c r="AA31">
         <v>63.676780669999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG31">
+        <v>94.786209099999994</v>
+      </c>
+      <c r="AH31">
+        <v>100.3592732</v>
+      </c>
+      <c r="AI31">
+        <v>101.6225924</v>
+      </c>
+      <c r="AJ31">
+        <v>100.0698323</v>
+      </c>
+      <c r="AL31">
+        <v>100.0698323</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>9</v>
       </c>
@@ -2983,8 +3525,23 @@
       <c r="AA32">
         <v>79.346448640000006</v>
       </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG32">
+        <v>72.024192020000001</v>
+      </c>
+      <c r="AH32">
+        <v>73.022337969999995</v>
+      </c>
+      <c r="AI32">
+        <v>63.676780669999999</v>
+      </c>
+      <c r="AJ32">
+        <v>67.803247749999997</v>
+      </c>
+      <c r="AL32">
+        <v>67.803247749999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10</v>
       </c>
@@ -3045,8 +3602,23 @@
       <c r="AA33">
         <v>89.932227650000002</v>
       </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG33">
+        <v>75.40835826</v>
+      </c>
+      <c r="AH33">
+        <v>78.299039260000001</v>
+      </c>
+      <c r="AI33">
+        <v>79.346448640000006</v>
+      </c>
+      <c r="AJ33">
+        <v>78.159485180000004</v>
+      </c>
+      <c r="AL33">
+        <v>78.159485180000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>11</v>
       </c>
@@ -3107,8 +3679,23 @@
       <c r="AA34">
         <v>84.736464400000003</v>
       </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG34">
+        <v>85.033464390000006</v>
+      </c>
+      <c r="AH34">
+        <v>80.728077119999995</v>
+      </c>
+      <c r="AI34">
+        <v>88.060464289999999</v>
+      </c>
+      <c r="AJ34">
+        <v>84.358206229999993</v>
+      </c>
+      <c r="AL34">
+        <v>84.358206229999993</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -3169,8 +3756,23 @@
       <c r="AA35">
         <v>90.143656770000007</v>
       </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG35">
+        <v>72.614238159999999</v>
+      </c>
+      <c r="AH35">
+        <v>82.493457460000002</v>
+      </c>
+      <c r="AI35">
+        <v>84.736464400000003</v>
+      </c>
+      <c r="AJ35">
+        <v>80.129607960000001</v>
+      </c>
+      <c r="AL35">
+        <v>80.129607960000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -3231,8 +3833,23 @@
       <c r="AA36">
         <v>95.131098690000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG36">
+        <v>83.965133280000003</v>
+      </c>
+      <c r="AH36">
+        <v>82.281631809999993</v>
+      </c>
+      <c r="AI36">
+        <v>90.143656770000007</v>
+      </c>
+      <c r="AJ36">
+        <v>85.899278859999995</v>
+      </c>
+      <c r="AL36">
+        <v>85.899278859999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -3293,8 +3910,23 @@
       <c r="AA37">
         <v>84.137443340000004</v>
       </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG37">
+        <v>86.080743960000007</v>
+      </c>
+      <c r="AH37">
+        <v>82.775840000000002</v>
+      </c>
+      <c r="AI37">
+        <v>95.131098690000002</v>
+      </c>
+      <c r="AJ37">
+        <v>88.516485459999998</v>
+      </c>
+      <c r="AL37">
+        <v>88.516485459999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4</v>
       </c>
@@ -3355,8 +3987,23 @@
       <c r="AA38">
         <v>100.0814209</v>
       </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG38">
+        <v>83.63824631</v>
+      </c>
+      <c r="AH38">
+        <v>69.891181309999993</v>
+      </c>
+      <c r="AI38">
+        <v>84.137443340000004</v>
+      </c>
+      <c r="AJ38">
+        <v>78.057160929999995</v>
+      </c>
+      <c r="AL38">
+        <v>78.057160929999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
@@ -3364,25 +4011,29 @@
         <v>18</v>
       </c>
       <c r="C39">
-        <v>1.4709851700000001</v>
+        <v>2.5696189999999999</v>
       </c>
       <c r="D39">
-        <v>83.965133280000003</v>
+        <f>C39/O1*100</f>
+        <v>88.057948665227372</v>
       </c>
       <c r="E39">
-        <v>1.68767855</v>
+        <v>2.8909159999999998</v>
       </c>
       <c r="F39">
-        <v>82.281631809999993</v>
+        <f>E39/P1*100</f>
+        <v>87.057427650796512</v>
       </c>
       <c r="G39">
-        <v>1.38514743</v>
+        <v>3.0233143999999998</v>
       </c>
       <c r="H39">
-        <v>90.143656770000007</v>
+        <f>G39/Q1*100</f>
+        <v>90.700339003390027</v>
       </c>
       <c r="I39">
-        <v>85.899278859999995</v>
+        <f>(C39*0.17+E39*0.35+G39*0.23)/P3*100</f>
+        <v>88.413811984506268</v>
       </c>
       <c r="L39">
         <v>1.862948853</v>
@@ -3417,8 +4068,23 @@
       <c r="AA39">
         <v>70.512060649999995</v>
       </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG39">
+        <v>88.057948665227372</v>
+      </c>
+      <c r="AH39">
+        <v>87.057427650796512</v>
+      </c>
+      <c r="AI39">
+        <v>90.700339003390027</v>
+      </c>
+      <c r="AJ39">
+        <v>88.413811984506268</v>
+      </c>
+      <c r="AL39">
+        <v>88.413811984506268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6</v>
       </c>
@@ -3426,19 +4092,19 @@
         <v>18</v>
       </c>
       <c r="C40">
-        <v>0.44721008000000001</v>
+        <v>1.4709851700000001</v>
       </c>
       <c r="D40">
         <v>61.370945519999999</v>
       </c>
       <c r="E40">
-        <v>1.7796628800000001</v>
+        <v>1.68767855</v>
       </c>
       <c r="F40">
         <v>69.434001010000003</v>
       </c>
       <c r="G40">
-        <v>0.42088649</v>
+        <v>1.38514743</v>
       </c>
       <c r="H40">
         <v>70.512060649999995</v>
@@ -3473,8 +4139,23 @@
       <c r="AA40">
         <v>102.7683998</v>
       </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG40">
+        <v>61.370945519999999</v>
+      </c>
+      <c r="AH40">
+        <v>69.434001010000003</v>
+      </c>
+      <c r="AI40">
+        <v>70.512060649999995</v>
+      </c>
+      <c r="AJ40">
+        <v>68.595212599999996</v>
+      </c>
+      <c r="AL40">
+        <v>68.595212599999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>7</v>
       </c>
@@ -3529,8 +4210,23 @@
       <c r="AA41">
         <v>103.3995788</v>
       </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG41">
+        <v>78.271119979999995</v>
+      </c>
+      <c r="AH41">
+        <v>97.653258289999997</v>
+      </c>
+      <c r="AI41">
+        <v>102.7683998</v>
+      </c>
+      <c r="AJ41">
+        <v>95.120586360000004</v>
+      </c>
+      <c r="AL41">
+        <v>95.120586360000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>8</v>
       </c>
@@ -3585,8 +4281,23 @@
       <c r="AA42">
         <v>66.221634969999997</v>
       </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG42">
+        <v>101.7998324</v>
+      </c>
+      <c r="AH42">
+        <v>100.7929735</v>
+      </c>
+      <c r="AI42">
+        <v>103.3995788</v>
+      </c>
+      <c r="AJ42">
+        <v>102.2598753</v>
+      </c>
+      <c r="AL42">
+        <v>102.2598753</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>9</v>
       </c>
@@ -3641,8 +4352,23 @@
       <c r="AA43">
         <v>83.466740220000005</v>
       </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG43">
+        <v>71.507791299999994</v>
+      </c>
+      <c r="AH43">
+        <v>69.365163800000005</v>
+      </c>
+      <c r="AI43">
+        <v>66.221634969999997</v>
+      </c>
+      <c r="AJ43">
+        <v>68.110011990000004</v>
+      </c>
+      <c r="AL43">
+        <v>68.110011990000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>10</v>
       </c>
@@ -3697,8 +4423,23 @@
       <c r="AA44">
         <v>90.143656770000007</v>
       </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG44">
+        <v>73.989077809999998</v>
+      </c>
+      <c r="AH44">
+        <v>81.153575140000001</v>
+      </c>
+      <c r="AI44">
+        <v>83.466740220000005</v>
+      </c>
+      <c r="AJ44">
+        <v>80.673612649999995</v>
+      </c>
+      <c r="AL44">
+        <v>80.673612649999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>11</v>
       </c>
@@ -3706,19 +4447,19 @@
         <v>18</v>
       </c>
       <c r="C45">
-        <v>2.5672705300000001</v>
+        <v>0.44721008000000001</v>
       </c>
       <c r="D45">
         <v>88.541835829999997</v>
       </c>
       <c r="E45">
-        <v>3.0991618700000001</v>
+        <v>1.7796628800000001</v>
       </c>
       <c r="F45">
         <v>87.03555016</v>
       </c>
       <c r="G45">
-        <v>2.03915895</v>
+        <v>0.42088649</v>
       </c>
       <c r="H45">
         <v>100.0814209</v>
@@ -3753,8 +4494,23 @@
       <c r="AA45">
         <v>84.394780659999995</v>
       </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG45">
+        <v>88.541835829999997</v>
+      </c>
+      <c r="AH45">
+        <v>87.03555016</v>
+      </c>
+      <c r="AI45">
+        <v>100.0814209</v>
+      </c>
+      <c r="AJ45">
+        <v>91.996383879999996</v>
+      </c>
+      <c r="AL45">
+        <v>91.996383879999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -3809,8 +4565,23 @@
       <c r="AA46">
         <v>88.284762459999996</v>
       </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG46">
+        <v>73.508605680000002</v>
+      </c>
+      <c r="AH46">
+        <v>82.982388709999995</v>
+      </c>
+      <c r="AI46">
+        <v>84.394780659999995</v>
+      </c>
+      <c r="AJ46">
+        <v>80.455956499999999</v>
+      </c>
+      <c r="AL46">
+        <v>80.455956499999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
@@ -3865,8 +4636,23 @@
       <c r="AA47">
         <v>94.190948340000006</v>
       </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG47">
+        <v>90.989708320000005</v>
+      </c>
+      <c r="AH47">
+        <v>86.191720050000001</v>
+      </c>
+      <c r="AI47">
+        <v>88.284762459999996</v>
+      </c>
+      <c r="AJ47">
+        <v>88.145703339999997</v>
+      </c>
+      <c r="AL47">
+        <v>88.145703339999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -3921,8 +4707,23 @@
       <c r="AA48">
         <v>72.277728920000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG48">
+        <v>89.131700480000006</v>
+      </c>
+      <c r="AH48">
+        <v>90.432972309999997</v>
+      </c>
+      <c r="AI48">
+        <v>94.190948340000006</v>
+      </c>
+      <c r="AJ48">
+        <v>91.490971349999995</v>
+      </c>
+      <c r="AL48">
+        <v>91.490971349999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4</v>
       </c>
@@ -3977,8 +4778,23 @@
       <c r="AA49">
         <v>89.929912150000007</v>
       </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG49">
+        <v>75.86373854</v>
+      </c>
+      <c r="AH49">
+        <v>70.378709850000007</v>
+      </c>
+      <c r="AI49">
+        <v>72.277728920000001</v>
+      </c>
+      <c r="AJ49">
+        <v>72.221658129999994</v>
+      </c>
+      <c r="AL49">
+        <v>72.221658129999994</v>
+      </c>
+    </row>
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5</v>
       </c>
@@ -3986,25 +4802,29 @@
         <v>19</v>
       </c>
       <c r="C50">
-        <v>1.5940487000000001</v>
+        <v>2.6093860000000002</v>
       </c>
       <c r="D50">
-        <v>90.989708320000005</v>
+        <f>C50/O1*100</f>
+        <v>89.420718960967761</v>
       </c>
       <c r="E50">
-        <v>1.76787837</v>
+        <v>2.986866</v>
       </c>
       <c r="F50">
-        <v>86.191720050000001</v>
+        <f>E50/P1*100</f>
+        <v>89.946878670159904</v>
       </c>
       <c r="G50">
-        <v>1.3565836600000001</v>
+        <v>2.9538850000000001</v>
       </c>
       <c r="H50">
-        <v>88.284762459999996</v>
+        <f>G50/Q1*100</f>
+        <v>88.617436174361757</v>
       </c>
       <c r="I50">
-        <v>88.145703339999997</v>
+        <f>(C50*0.17+E50*0.35+G50*0.23)/P3*100</f>
+        <v>89.41893854013702</v>
       </c>
       <c r="L50">
         <v>1.7728927370000001</v>
@@ -4033,8 +4853,23 @@
       <c r="AA50">
         <v>71.178879210000005</v>
       </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG50">
+        <v>89.420718960967761</v>
+      </c>
+      <c r="AH50">
+        <v>89.946878670159904</v>
+      </c>
+      <c r="AI50">
+        <v>88.617436174361757</v>
+      </c>
+      <c r="AJ50">
+        <v>89.41893854013702</v>
+      </c>
+      <c r="AL50">
+        <v>89.41893854013702</v>
+      </c>
+    </row>
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>6</v>
       </c>
@@ -4089,8 +4924,23 @@
       <c r="AA51">
         <v>95.098363149999997</v>
       </c>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG51">
+        <v>68.021438180000004</v>
+      </c>
+      <c r="AH51">
+        <v>68.700001560000004</v>
+      </c>
+      <c r="AI51">
+        <v>71.178879210000005</v>
+      </c>
+      <c r="AJ51">
+        <v>69.170360099999996</v>
+      </c>
+      <c r="AL51">
+        <v>69.170360099999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>7</v>
       </c>
@@ -4145,8 +4995,23 @@
       <c r="AA52">
         <v>93.320820650000002</v>
       </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG52">
+        <v>71.333373330000001</v>
+      </c>
+      <c r="AH52">
+        <v>96.857511779999996</v>
+      </c>
+      <c r="AI52">
+        <v>95.098363149999997</v>
+      </c>
+      <c r="AJ52">
+        <v>89.83014335</v>
+      </c>
+      <c r="AL52">
+        <v>89.83014335</v>
+      </c>
+    </row>
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>8</v>
       </c>
@@ -4201,8 +5066,23 @@
       <c r="AA53">
         <v>72.312416679999998</v>
       </c>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG53">
+        <v>98.731951319999993</v>
+      </c>
+      <c r="AH53">
+        <v>100.7568064</v>
+      </c>
+      <c r="AI53">
+        <v>93.320820650000002</v>
+      </c>
+      <c r="AJ53">
+        <v>96.711981499999993</v>
+      </c>
+      <c r="AL53">
+        <v>96.711981499999993</v>
+      </c>
+    </row>
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>9</v>
       </c>
@@ -4257,8 +5137,23 @@
       <c r="AA54">
         <v>81.184489940000006</v>
       </c>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG54">
+        <v>82.342210949999995</v>
+      </c>
+      <c r="AH54">
+        <v>81.309608769999997</v>
+      </c>
+      <c r="AI54">
+        <v>72.312416679999998</v>
+      </c>
+      <c r="AJ54">
+        <v>76.687553739999998</v>
+      </c>
+      <c r="AL54">
+        <v>76.687553739999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>10</v>
       </c>
@@ -4313,8 +5208,23 @@
       <c r="AA55">
         <v>88.284762459999996</v>
       </c>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AG55">
+        <v>75.103000910000006</v>
+      </c>
+      <c r="AH55">
+        <v>83.468845610000002</v>
+      </c>
+      <c r="AI55">
+        <v>81.184489940000006</v>
+      </c>
+      <c r="AJ55">
+        <v>80.544899419999993</v>
+      </c>
+      <c r="AL55">
+        <v>80.544899419999993</v>
+      </c>
+    </row>
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>11</v>
       </c>
@@ -4344,6 +5254,21 @@
       </c>
       <c r="L56">
         <v>1.152404585</v>
+      </c>
+      <c r="AG56">
+        <v>93.021167790000007</v>
+      </c>
+      <c r="AH56">
+        <v>82.182895139999999</v>
+      </c>
+      <c r="AI56">
+        <v>89.929912150000007</v>
+      </c>
+      <c r="AJ56">
+        <v>87.549221000000003</v>
+      </c>
+      <c r="AL56">
+        <v>87.549221000000003</v>
       </c>
     </row>
   </sheetData>
